--- a/branches/add_data/CodeSystem-Cs-med-relation-types.xlsx
+++ b/branches/add_data/CodeSystem-Cs-med-relation-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:41:32+00:00</t>
+    <t>2022-06-28T12:44:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/add_data/CodeSystem-Cs-med-relation-types.xlsx
+++ b/branches/add_data/CodeSystem-Cs-med-relation-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:44:43+00:00</t>
+    <t>2022-08-13T20:35:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
